--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -100,18 +100,18 @@
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -124,10 +124,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>help</t>
@@ -688,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1230,25 +1230,25 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7030567685589519</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L17">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1256,25 +1256,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6888888888888889</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N18">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1282,25 +1282,25 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6842105263157895</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1308,25 +1308,25 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6777777777777778</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L20">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="M20">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1438,25 +1438,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.599388379204893</v>
+        <v>0.5815789473684211</v>
       </c>
       <c r="L25">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="M25">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1464,25 +1464,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5815789473684211</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L26">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="M26">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="10:17">
